--- a/噶哈巫語千詞表_分級0102_清理.xlsx
+++ b/噶哈巫語千詞表_分級0102_清理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Documents\GitHub\sahan-kaxabu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180221B2-B0BB-4FFC-B758-41A069EC885E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6EC37-D10F-48E1-A9C5-D60ABD3EB97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9531,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AC33BE-EB66-48E1-ADC0-E1F878E4B47D}">
   <dimension ref="A1:G1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1041" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1066" sqref="C1066"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G608" sqref="G608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
